--- a/记忆桩/记忆桩.xlsx
+++ b/记忆桩/记忆桩.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
   <si>
     <t>场景1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,550 +216,607 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>茶光路立交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶往学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二中学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶光路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泊寓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小卖部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎城国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚竹医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞波光电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台打卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外婆家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中记忆桩：20个记忆桩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超短记忆桩：5个桩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆桩规划：长记忆桩2个， 中记忆桩5个， 短记忆桩5个，超短记忆桩10个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坡上远望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下坡开门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石子路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂花树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碗柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灶台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八仙桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躺椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮水机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上楼门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视机/水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上楼触摸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天台小坐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱窗门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫星电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后视窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬屋顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水井机关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱橘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜园小门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大桑树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围栏蔓藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樟树桩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庭院黄花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水塘边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无花果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邻居晒场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水塘码头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灰池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机晖唐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石桥流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峰山坳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖坟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原野眺望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上坡弯路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃李成荫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥砖房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满奶奶家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短记忆桩：12个桩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膝盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臀部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开车/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后视镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挡风玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手刹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离合器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆购物信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用场景：记牌，记数字，记人物，记文字，记购物清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物桩：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪八戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白龙马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游记/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五虎将/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速记物品清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长记忆桩：54个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要领：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点桩：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物桩：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字桩：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记牌，记数字（与数字编码表配合使用），记长篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒背36计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词语桩：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记物品，记词语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试背要点-&gt;直接根据题干现场编码。例如：王安石变法内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母桩：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jiyifa.com/younao/77476.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二生肖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟渠淌水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TCL国际城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶光路立交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赶往学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二中学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶光路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泊寓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买早餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷泉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小卖部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电梯间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼎城国际</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚竹医疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞波光电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台打卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外婆家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中记忆桩：20个记忆桩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超短记忆桩：5个桩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记忆桩规划：长记忆桩2个， 中记忆桩5个， 短记忆桩5个，超短记忆桩10个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坡上远望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下坡开门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石子路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂花树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碗柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灶台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八仙桌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躺椅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饮水机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上楼门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茅台酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视机/水果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上楼触摸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走廊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天台小坐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纱窗门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫星电视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后视窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爬屋顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沟渠趟水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水井机关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱橘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜园小门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大桑树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韭菜地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>围栏蔓藤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樟树桩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庭院黄花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大门口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水塘边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无花果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>井盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邻居晒场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水塘码头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石灰池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机晖唐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石桥流水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>峰山坳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖坟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原野眺望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上坡弯路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃李成荫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泥砖房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满奶奶家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短记忆桩：12个桩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚踝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膝盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臀部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开车/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座椅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后视镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方向盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挡风玻璃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手刹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离合器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记忆购物信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用场景：记牌，记数字，记人物，记文字，记购物清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物桩：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐僧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪八戒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙僧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白龙马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西游记/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄忠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五虎将/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速记物品清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长记忆桩：54个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要领：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地点桩：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物桩：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字桩：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记牌，记数字（与数字编码表配合使用），记长篇文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒背36计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.jiyifa.com/younao/77476.html</t>
-  </si>
-  <si>
-    <t>词语桩：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记物品，记词语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考试背要点-&gt;直接根据题干现场编码。例如：王安石变法内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字母桩：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +824,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,6 +875,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -836,19 +901,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1150,72 +1218,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
         <v>179</v>
       </c>
-      <c r="B6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" t="s">
-        <v>182</v>
+      <c r="D6" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1404,13 +1472,13 @@
         <v>49</v>
       </c>
       <c r="J16" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" t="s">
         <v>50</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1418,37 +1486,37 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>58</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>59</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>60</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>61</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1456,24 +1524,24 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1516,37 +1584,37 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
         <v>73</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>76</v>
       </c>
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s">
         <v>77</v>
       </c>
-      <c r="G22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>78</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>79</v>
-      </c>
-      <c r="J22" t="s">
-        <v>80</v>
       </c>
       <c r="K22" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1554,37 +1622,37 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>83</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>84</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>85</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>86</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>87</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" t="s">
         <v>88</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="J23" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" t="s">
-        <v>89</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1592,37 +1660,37 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>95</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>96</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>97</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>98</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>99</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>100</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>101</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1630,37 +1698,37 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
         <v>104</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>105</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>106</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>107</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>108</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>109</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>110</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>111</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="K25" t="s">
-        <v>113</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1668,37 +1736,37 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
         <v>116</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>117</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>118</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>119</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>120</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>121</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>122</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>123</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="K26" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1706,178 +1774,227 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
         <v>127</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>128</v>
       </c>
-      <c r="D27" t="s">
+      <c r="L27" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E27" t="s">
-        <v>130</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="H33" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="I33" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="J33" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="K33" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="L33" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="M33" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35" t="s">
+        <v>142</v>
+      </c>
+      <c r="L35" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
         <v>149</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E37" t="s">
         <v>150</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F37" t="s">
         <v>151</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G37" t="s">
         <v>152</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H37" t="s">
         <v>153</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I37" t="s">
         <v>154</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J37" t="s">
         <v>155</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K37" t="s">
         <v>156</v>
       </c>
-      <c r="J35" t="s">
-        <v>157</v>
-      </c>
-      <c r="K35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" t="s">
-        <v>163</v>
-      </c>
-      <c r="D39" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" t="s">
-        <v>165</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="C43" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="D43" t="s">
         <v>168</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E43" t="s">
         <v>169</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F43" t="s">
         <v>170</v>
-      </c>
-      <c r="E42" t="s">
-        <v>171</v>
-      </c>
-      <c r="F42" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/记忆桩/记忆桩.xlsx
+++ b/记忆桩/记忆桩.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="290">
   <si>
     <t>场景1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,10 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中记忆桩：20个记忆桩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>超短记忆桩：5个桩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,6 +813,366 @@
   </si>
   <si>
     <t>TCL国际城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话桩：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见证车祸现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目击者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇事司机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副驾驶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个桩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业记电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞尚参会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送我司机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台美女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57楼换乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接待室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业厅办业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪谁去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门卫取号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大堂经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等候区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口办理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡桩：5个桩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业记银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙果酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门口取号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大堂经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口办理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（和电信的电话桩重叠了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记各种口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进站口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车门口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检票口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车厢+座位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检票口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桩：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车桩：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个桩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位上（可选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙县小吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肠粉店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海王星辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北饺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中记忆桩：30个记忆桩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11~15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16~20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21~25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木屋烧烤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>街头叫卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过马路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大脚板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美女粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜场门口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缘来佛具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜总会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝安大道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立体停车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻身站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>街口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大黄蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安乐小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡通警察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr. Wine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴森小门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴森公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿都小街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼下大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺和路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻身路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业一路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闹转宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊返平</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,12 +1240,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -905,7 +1267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -913,6 +1275,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1218,72 +1581,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1472,7 +1835,7 @@
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K16" t="s">
         <v>50</v>
@@ -1584,37 +1947,37 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
         <v>72</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
         <v>73</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>75</v>
       </c>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s">
         <v>76</v>
       </c>
-      <c r="G22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>77</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>78</v>
-      </c>
-      <c r="J22" t="s">
-        <v>79</v>
       </c>
       <c r="K22" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1622,37 +1985,37 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
         <v>81</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>83</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>84</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>85</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>86</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" t="s">
         <v>87</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="J23" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" t="s">
-        <v>88</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1660,37 +2023,37 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
         <v>92</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>93</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>94</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>95</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>96</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>97</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>98</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>99</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>100</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1698,37 +2061,37 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
         <v>103</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>104</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>105</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>106</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>107</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>108</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>109</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>110</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1736,37 +2099,37 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
         <v>114</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>115</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>116</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>117</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>118</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>119</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>120</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>121</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>122</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,219 +2137,544 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
         <v>125</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>126</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>127</v>
       </c>
-      <c r="E27" t="s">
+      <c r="L27" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>246</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" t="s">
+        <v>249</v>
+      </c>
+      <c r="E31" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>198</v>
+        <v>253</v>
+      </c>
+      <c r="B32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>254</v>
+      </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="F33" t="s">
-        <v>190</v>
-      </c>
-      <c r="G33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H33" t="s">
-        <v>192</v>
-      </c>
-      <c r="I33" t="s">
-        <v>193</v>
-      </c>
-      <c r="J33" t="s">
-        <v>194</v>
-      </c>
-      <c r="K33" t="s">
-        <v>195</v>
-      </c>
-      <c r="L33" t="s">
-        <v>196</v>
-      </c>
-      <c r="M33" t="s">
-        <v>197</v>
+        <v>267</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>132</v>
+        <v>255</v>
+      </c>
+      <c r="B34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>256</v>
+      </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>273</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>276</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" t="s">
-        <v>139</v>
-      </c>
-      <c r="I35" t="s">
-        <v>140</v>
-      </c>
-      <c r="J35" t="s">
-        <v>141</v>
-      </c>
-      <c r="K35" t="s">
-        <v>142</v>
-      </c>
-      <c r="L35" t="s">
-        <v>144</v>
-      </c>
-      <c r="M35" t="s">
-        <v>143</v>
+        <v>277</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>146</v>
+        <v>257</v>
+      </c>
+      <c r="B36" t="s">
+        <v>278</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" t="s">
-        <v>151</v>
-      </c>
-      <c r="G37" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" t="s">
-        <v>153</v>
-      </c>
-      <c r="I37" t="s">
-        <v>154</v>
-      </c>
-      <c r="J37" t="s">
-        <v>155</v>
-      </c>
-      <c r="K37" t="s">
-        <v>156</v>
+        <v>279</v>
+      </c>
+      <c r="D36" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" t="s">
+        <v>281</v>
+      </c>
+      <c r="F36" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>165</v>
+        <v>184</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E41" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="F41" t="s">
-        <v>164</v>
+        <v>189</v>
+      </c>
+      <c r="G41" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" t="s">
+        <v>191</v>
+      </c>
+      <c r="I41" t="s">
+        <v>192</v>
+      </c>
+      <c r="J41" t="s">
+        <v>193</v>
+      </c>
+      <c r="K41" t="s">
+        <v>194</v>
+      </c>
+      <c r="L41" t="s">
+        <v>195</v>
+      </c>
+      <c r="M41" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>171</v>
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" t="s">
+        <v>137</v>
+      </c>
+      <c r="H43" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" t="s">
+        <v>139</v>
+      </c>
+      <c r="J43" t="s">
+        <v>140</v>
+      </c>
+      <c r="K43" t="s">
+        <v>141</v>
+      </c>
+      <c r="L43" t="s">
+        <v>143</v>
+      </c>
+      <c r="M43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" t="s">
+        <v>151</v>
+      </c>
+      <c r="H45" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45" t="s">
+        <v>153</v>
+      </c>
+      <c r="J45" t="s">
+        <v>154</v>
+      </c>
+      <c r="K45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" t="s">
         <v>167</v>
       </c>
-      <c r="C43" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E51" t="s">
         <v>168</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F51" t="s">
         <v>169</v>
       </c>
-      <c r="F43" t="s">
-        <v>170</v>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" t="s">
+        <v>206</v>
+      </c>
+      <c r="G56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" t="s">
+        <v>214</v>
+      </c>
+      <c r="F58" t="s">
+        <v>215</v>
+      </c>
+      <c r="G58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" t="s">
+        <v>222</v>
+      </c>
+      <c r="G60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" t="s">
+        <v>225</v>
+      </c>
+      <c r="F62" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" t="s">
+        <v>228</v>
+      </c>
+      <c r="E63" t="s">
+        <v>222</v>
+      </c>
+      <c r="F63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>242</v>
+      </c>
+      <c r="B65" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66" t="s">
+        <v>235</v>
+      </c>
+      <c r="E66" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" t="s">
+        <v>237</v>
+      </c>
+      <c r="E67" t="s">
+        <v>236</v>
+      </c>
+      <c r="F67" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/记忆桩/记忆桩.xlsx
+++ b/记忆桩/记忆桩.xlsx
@@ -632,10 +632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离合器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>油门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1173,6 +1169,10 @@
   </si>
   <si>
     <t>惊返平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚刹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1581,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1596,57 +1596,57 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1835,7 +1835,7 @@
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K16" t="s">
         <v>50</v>
@@ -2061,7 +2061,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
         <v>102</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2174,507 +2174,507 @@
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" t="s">
         <v>246</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>247</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>248</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>249</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>250</v>
       </c>
-      <c r="F31" t="s">
-        <v>251</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" t="s">
         <v>258</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>259</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>260</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>261</v>
       </c>
-      <c r="F32" t="s">
-        <v>262</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C33" t="s">
         <v>263</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>264</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>266</v>
       </c>
-      <c r="F33" t="s">
-        <v>267</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" t="s">
         <v>268</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>269</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>270</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>271</v>
       </c>
-      <c r="F34" t="s">
-        <v>272</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35" t="s">
         <v>273</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>274</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>275</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>276</v>
       </c>
-      <c r="F35" t="s">
-        <v>277</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" t="s">
         <v>278</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>279</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>280</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>281</v>
       </c>
-      <c r="F36" t="s">
-        <v>282</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>183</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>184</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>197</v>
+      <c r="C40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40" t="s">
+        <v>190</v>
+      </c>
+      <c r="I40" t="s">
+        <v>191</v>
+      </c>
+      <c r="J40" t="s">
+        <v>192</v>
+      </c>
+      <c r="K40" t="s">
+        <v>193</v>
+      </c>
+      <c r="L40" t="s">
+        <v>194</v>
+      </c>
+      <c r="M40" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" t="s">
-        <v>188</v>
-      </c>
-      <c r="F41" t="s">
-        <v>189</v>
-      </c>
-      <c r="G41" t="s">
-        <v>190</v>
-      </c>
-      <c r="H41" t="s">
-        <v>191</v>
-      </c>
-      <c r="I41" t="s">
-        <v>192</v>
-      </c>
-      <c r="J41" t="s">
-        <v>193</v>
-      </c>
-      <c r="K41" t="s">
-        <v>194</v>
-      </c>
-      <c r="L41" t="s">
-        <v>195</v>
-      </c>
-      <c r="M41" t="s">
-        <v>196</v>
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>131</v>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" t="s">
+        <v>138</v>
+      </c>
+      <c r="I42" t="s">
+        <v>139</v>
+      </c>
+      <c r="J42" t="s">
+        <v>140</v>
+      </c>
+      <c r="K42" t="s">
+        <v>141</v>
+      </c>
+      <c r="L42" t="s">
+        <v>143</v>
+      </c>
+      <c r="M42" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>132</v>
+      <c r="A43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" t="s">
-        <v>136</v>
-      </c>
-      <c r="G43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H43" t="s">
-        <v>138</v>
-      </c>
-      <c r="I43" t="s">
-        <v>139</v>
-      </c>
-      <c r="J43" t="s">
-        <v>140</v>
-      </c>
-      <c r="K43" t="s">
-        <v>141</v>
-      </c>
-      <c r="L43" t="s">
-        <v>143</v>
-      </c>
-      <c r="M43" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>145</v>
+      <c r="B44" t="s">
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" t="s">
         <v>147</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D44" t="s">
         <v>148</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E44" t="s">
         <v>149</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F44" t="s">
         <v>150</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G44" t="s">
         <v>151</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H44" t="s">
         <v>152</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I44" t="s">
         <v>153</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J44" t="s">
+        <v>289</v>
+      </c>
+      <c r="K44" t="s">
         <v>154</v>
       </c>
-      <c r="K45" t="s">
-        <v>155</v>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" t="s">
-        <v>171</v>
+        <v>157</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" t="s">
+        <v>161</v>
+      </c>
+      <c r="F48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>159</v>
-      </c>
-      <c r="C49" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" t="s">
-        <v>162</v>
-      </c>
-      <c r="F49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="D50" t="s">
         <v>166</v>
       </c>
-      <c r="C51" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E50" t="s">
         <v>167</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F50" t="s">
         <v>168</v>
       </c>
-      <c r="F51" t="s">
-        <v>169</v>
-      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>200</v>
-      </c>
-      <c r="B54" t="s">
-        <v>209</v>
-      </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" t="s">
+        <v>204</v>
+      </c>
+      <c r="G54" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="7"/>
+        <v>210</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F56" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G56" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>211</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D58" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E58" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F58" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G58" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D59" s="7"/>
+        <v>222</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>223</v>
+      </c>
       <c r="C60" t="s">
-        <v>219</v>
-      </c>
-      <c r="D60" t="s">
-        <v>220</v>
-      </c>
-      <c r="E60" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" t="s">
         <v>221</v>
       </c>
-      <c r="F60" t="s">
-        <v>222</v>
-      </c>
-      <c r="G60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" t="s">
-        <v>225</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="F61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" t="s">
+        <v>242</v>
+      </c>
+      <c r="C63" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>226</v>
-      </c>
-      <c r="C63" t="s">
-        <v>227</v>
-      </c>
-      <c r="D63" t="s">
-        <v>228</v>
-      </c>
-      <c r="E63" t="s">
-        <v>222</v>
-      </c>
-      <c r="F63" t="s">
-        <v>229</v>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" t="s">
+        <v>234</v>
+      </c>
+      <c r="E64" t="s">
+        <v>233</v>
+      </c>
+      <c r="F64" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65" t="s">
+        <v>235</v>
+      </c>
+      <c r="F65" t="s">
         <v>243</v>
-      </c>
-      <c r="C65" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>238</v>
-      </c>
-      <c r="B66" t="s">
-        <v>232</v>
-      </c>
-      <c r="C66" t="s">
-        <v>233</v>
-      </c>
-      <c r="D66" t="s">
-        <v>235</v>
-      </c>
-      <c r="E66" t="s">
-        <v>234</v>
-      </c>
-      <c r="F66" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>239</v>
-      </c>
-      <c r="B67" t="s">
-        <v>241</v>
-      </c>
-      <c r="C67" t="s">
-        <v>240</v>
-      </c>
-      <c r="D67" t="s">
-        <v>237</v>
-      </c>
-      <c r="E67" t="s">
-        <v>236</v>
-      </c>
-      <c r="F67" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/记忆桩/记忆桩.xlsx
+++ b/记忆桩/记忆桩.xlsx
@@ -624,10 +624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>挡风玻璃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手刹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -956,10 +952,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车厢+座位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检票口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -988,14 +980,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A-F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座位上（可选）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1~5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1173,6 +1157,22 @@
   </si>
   <si>
     <t>脚刹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车厢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1583,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1596,57 +1596,57 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1835,7 +1835,7 @@
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K16" t="s">
         <v>50</v>
@@ -2061,7 +2061,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
         <v>102</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2174,145 +2174,145 @@
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" t="s">
+        <v>244</v>
+      </c>
+      <c r="E31" t="s">
         <v>245</v>
       </c>
-      <c r="B31" t="s">
+      <c r="F31" t="s">
         <v>246</v>
       </c>
-      <c r="C31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D31" t="s">
-        <v>248</v>
-      </c>
-      <c r="E31" t="s">
-        <v>249</v>
-      </c>
-      <c r="F31" t="s">
-        <v>250</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D32" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" t="s">
         <v>257</v>
       </c>
-      <c r="C32" t="s">
-        <v>258</v>
-      </c>
-      <c r="D32" t="s">
-        <v>259</v>
-      </c>
-      <c r="E32" t="s">
-        <v>260</v>
-      </c>
-      <c r="F32" t="s">
-        <v>261</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" t="s">
         <v>262</v>
       </c>
-      <c r="C33" t="s">
-        <v>263</v>
-      </c>
-      <c r="D33" t="s">
-        <v>264</v>
-      </c>
-      <c r="E33" t="s">
-        <v>265</v>
-      </c>
-      <c r="F33" t="s">
-        <v>266</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" t="s">
+        <v>265</v>
+      </c>
+      <c r="E34" t="s">
+        <v>266</v>
+      </c>
+      <c r="F34" t="s">
         <v>267</v>
       </c>
-      <c r="C34" t="s">
-        <v>268</v>
-      </c>
-      <c r="D34" t="s">
-        <v>269</v>
-      </c>
-      <c r="E34" t="s">
-        <v>270</v>
-      </c>
-      <c r="F34" t="s">
-        <v>271</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" t="s">
         <v>272</v>
       </c>
-      <c r="C35" t="s">
-        <v>273</v>
-      </c>
-      <c r="D35" t="s">
-        <v>274</v>
-      </c>
-      <c r="E35" t="s">
-        <v>275</v>
-      </c>
-      <c r="F35" t="s">
-        <v>276</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" t="s">
+        <v>275</v>
+      </c>
+      <c r="E36" t="s">
+        <v>276</v>
+      </c>
+      <c r="F36" t="s">
         <v>277</v>
       </c>
-      <c r="C36" t="s">
-        <v>278</v>
-      </c>
-      <c r="D36" t="s">
-        <v>279</v>
-      </c>
-      <c r="E36" t="s">
-        <v>280</v>
-      </c>
-      <c r="F36" t="s">
-        <v>281</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2322,48 +2322,48 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" t="s">
         <v>184</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>185</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>186</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>187</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>188</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>189</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>190</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>191</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>192</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>193</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>194</v>
-      </c>
-      <c r="M40" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2420,7 +2420,7 @@
         <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2443,16 +2443,16 @@
         <v>151</v>
       </c>
       <c r="H44" t="s">
+        <v>286</v>
+      </c>
+      <c r="I44" t="s">
         <v>152</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
+        <v>285</v>
+      </c>
+      <c r="K44" t="s">
         <v>153</v>
-      </c>
-      <c r="J44" t="s">
-        <v>289</v>
-      </c>
-      <c r="K44" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2460,221 +2460,221 @@
         <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" t="s">
         <v>158</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>159</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>160</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>161</v>
-      </c>
-      <c r="F48" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" t="s">
         <v>165</v>
       </c>
-      <c r="C50" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>166</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>167</v>
-      </c>
-      <c r="F50" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" t="s">
         <v>208</v>
-      </c>
-      <c r="C52" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" t="s">
         <v>202</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" t="s">
         <v>203</v>
       </c>
-      <c r="E54" t="s">
-        <v>206</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>204</v>
-      </c>
-      <c r="G54" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
+        <v>210</v>
+      </c>
+      <c r="D56" t="s">
         <v>211</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>212</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>213</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>214</v>
-      </c>
-      <c r="G56" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" t="s">
         <v>218</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>219</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>220</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>221</v>
-      </c>
-      <c r="G58" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>222</v>
+      </c>
+      <c r="C60" t="s">
         <v>223</v>
       </c>
-      <c r="C60" t="s">
-        <v>224</v>
-      </c>
       <c r="F60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" t="s">
         <v>225</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>226</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>220</v>
+      </c>
+      <c r="F61" t="s">
         <v>227</v>
-      </c>
-      <c r="E61" t="s">
-        <v>221</v>
-      </c>
-      <c r="F61" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B63" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B64" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" t="s">
         <v>231</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" t="s">
         <v>232</v>
       </c>
-      <c r="D64" t="s">
-        <v>234</v>
-      </c>
-      <c r="E64" t="s">
-        <v>233</v>
-      </c>
       <c r="F64" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>236</v>
+      </c>
+      <c r="B65" t="s">
         <v>238</v>
       </c>
-      <c r="B65" t="s">
-        <v>240</v>
-      </c>
       <c r="C65" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E65" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="F65" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
